--- a/data/trans_orig/P33B5_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>26445</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17750</v>
+        <v>17381</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38448</v>
+        <v>37560</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04802841655814293</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03223711165244362</v>
+        <v>0.03156631524622304</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06982653558676859</v>
+        <v>0.06821392002380386</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -762,19 +762,19 @@
         <v>33414</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24858</v>
+        <v>25650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44142</v>
+        <v>44837</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06841347177311381</v>
+        <v>0.0684134717731138</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05089584087138425</v>
+        <v>0.05251715414940096</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09037853344580711</v>
+        <v>0.09180235355212057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -783,19 +783,19 @@
         <v>59859</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47322</v>
+        <v>47317</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74480</v>
+        <v>74839</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05761071062145915</v>
+        <v>0.05761071062145914</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04554422657026655</v>
+        <v>0.04553924727269672</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07168205005273935</v>
+        <v>0.07202803627090654</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>13151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7449</v>
+        <v>8002</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20966</v>
+        <v>21605</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02388444538498135</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01352761285148641</v>
+        <v>0.01453214062367808</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03807804046501964</v>
+        <v>0.03923759232368849</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -833,19 +833,19 @@
         <v>12832</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8169</v>
+        <v>7712</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20870</v>
+        <v>20603</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.0262737527760127</v>
+        <v>0.02627375277601269</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01672577973588109</v>
+        <v>0.01578908963123856</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04273122789727987</v>
+        <v>0.04218301412995774</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -854,19 +854,19 @@
         <v>25984</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18153</v>
+        <v>17604</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36769</v>
+        <v>36428</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02500757435309437</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01747107248514343</v>
+        <v>0.01694314364852686</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03538783616185248</v>
+        <v>0.03505982163517167</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>32765</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23582</v>
+        <v>22934</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45220</v>
+        <v>44993</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05950601698989375</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0428278186484858</v>
+        <v>0.0416514321742123</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08212559780970097</v>
+        <v>0.08171393422975023</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>62</v>
@@ -904,19 +904,19 @@
         <v>36425</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27700</v>
+        <v>28101</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46212</v>
+        <v>46678</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.07457847654302767</v>
+        <v>0.07457847654302766</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05671492257397268</v>
+        <v>0.05753459591090015</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09461709483926045</v>
+        <v>0.09557097191049929</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>100</v>
@@ -925,19 +925,19 @@
         <v>69190</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55938</v>
+        <v>55504</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>83700</v>
+        <v>82259</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06659104757590363</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05383672844873839</v>
+        <v>0.05341902928245904</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08055585514372571</v>
+        <v>0.07916886016352594</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>478256</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>460874</v>
+        <v>461531</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>492529</v>
+        <v>493886</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.868581121066982</v>
+        <v>0.8685811210669819</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8370119399720622</v>
+        <v>0.8382048700127462</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8945022302698667</v>
+        <v>0.8969669345870686</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>557</v>
@@ -975,19 +975,19 @@
         <v>405740</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>392175</v>
+        <v>390515</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>418716</v>
+        <v>417718</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8307342989078458</v>
+        <v>0.8307342989078459</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8029614291284617</v>
+        <v>0.7995612589705675</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8573015781285647</v>
+        <v>0.8552598354576216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1028</v>
@@ -996,19 +996,19 @@
         <v>883996</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>862856</v>
+        <v>864598</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>903519</v>
+        <v>904499</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8507906674495429</v>
+        <v>0.8507906674495428</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8304445220837934</v>
+        <v>0.8321210833023661</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8695798811494054</v>
+        <v>0.8705232590198857</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>22898</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15392</v>
+        <v>15359</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31812</v>
+        <v>32393</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.047387377145885</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03185251844289497</v>
+        <v>0.03178447375213393</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06583539761483696</v>
+        <v>0.06703762283981975</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>33</v>
@@ -1121,19 +1121,19 @@
         <v>22838</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15728</v>
+        <v>16187</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>31181</v>
+        <v>31862</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.0540583287742563</v>
+        <v>0.05405832877425631</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03722945777883169</v>
+        <v>0.03831408794739728</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07380640621179095</v>
+        <v>0.07541714394922006</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>60</v>
@@ -1142,19 +1142,19 @@
         <v>45736</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>34721</v>
+        <v>34990</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>57356</v>
+        <v>59302</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05049916621947652</v>
+        <v>0.05049916621947651</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.038336204494309</v>
+        <v>0.03863416152051064</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06332880423861016</v>
+        <v>0.06547727650949586</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>9114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5054</v>
+        <v>4982</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15473</v>
+        <v>16318</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01886049117161322</v>
+        <v>0.01886049117161321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01045927946595737</v>
+        <v>0.01031112037245914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03202186931504337</v>
+        <v>0.03377011622759643</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1192,19 +1192,19 @@
         <v>8623</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4637</v>
+        <v>4895</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13783</v>
+        <v>14267</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02041016248099266</v>
+        <v>0.02041016248099265</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01097572518014447</v>
+        <v>0.01158542270758111</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03262439934463458</v>
+        <v>0.0337690070901569</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1213,19 +1213,19 @@
         <v>17736</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10907</v>
+        <v>11632</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26318</v>
+        <v>26117</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0195833640864274</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01204325945223937</v>
+        <v>0.01284375835333505</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02905832999307259</v>
+        <v>0.02883655799094693</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>33974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23944</v>
+        <v>23170</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>46359</v>
+        <v>45534</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.070308581660043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04955242919792854</v>
+        <v>0.04794960926703862</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0959382995176884</v>
+        <v>0.09423137455380071</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>51</v>
@@ -1263,19 +1263,19 @@
         <v>31415</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23483</v>
+        <v>23822</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40717</v>
+        <v>41584</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07435959484952841</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05558446574139604</v>
+        <v>0.05638633826372077</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09637635121054126</v>
+        <v>0.0984296295479884</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>87</v>
@@ -1284,19 +1284,19 @@
         <v>65389</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52892</v>
+        <v>52747</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>80981</v>
+        <v>80380</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07219825187237124</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05839995786153273</v>
+        <v>0.0582401484155121</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08941435806151433</v>
+        <v>0.08875062199124778</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>417226</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>401837</v>
+        <v>399374</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>429571</v>
+        <v>429852</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8634435500224587</v>
+        <v>0.8634435500224588</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8315952593735758</v>
+        <v>0.826498521987129</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8889915894849245</v>
+        <v>0.8895730219665962</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>492</v>
@@ -1334,19 +1334,19 @@
         <v>359598</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>348030</v>
+        <v>347042</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>371085</v>
+        <v>370666</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8511719138952228</v>
+        <v>0.8511719138952226</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.823789973976218</v>
+        <v>0.8214513881795235</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8783628423049173</v>
+        <v>0.8773699244470854</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>898</v>
@@ -1355,19 +1355,19 @@
         <v>776824</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>757567</v>
+        <v>756558</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>793943</v>
+        <v>794104</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.857719217821725</v>
+        <v>0.8577192178217249</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8364570705010529</v>
+        <v>0.8353429144126825</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8766209732180386</v>
+        <v>0.8767978576756124</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>30121</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21904</v>
+        <v>21654</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42425</v>
+        <v>41485</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06386920603553053</v>
+        <v>0.06386920603553052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0464441030235106</v>
+        <v>0.04591545578122447</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08995818887258834</v>
+        <v>0.08796367268331041</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -1480,19 +1480,19 @@
         <v>23106</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16460</v>
+        <v>16944</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31308</v>
+        <v>31567</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1232316476306131</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08779032658142512</v>
+        <v>0.09037038481071792</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1669799926277413</v>
+        <v>0.1683587258362249</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>75</v>
@@ -1501,19 +1501,19 @@
         <v>53227</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>40957</v>
+        <v>42136</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>66924</v>
+        <v>67071</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08075608912664674</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06213983664167567</v>
+        <v>0.06392818376918548</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1015363672866053</v>
+        <v>0.1017593941181035</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>7340</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3531</v>
+        <v>3538</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13567</v>
+        <v>13408</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0155645044259158</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.007487135893740826</v>
+        <v>0.007502251889643412</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02876832592940717</v>
+        <v>0.028430306950629</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>6</v>
@@ -1551,19 +1551,19 @@
         <v>4619</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1510</v>
+        <v>1933</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9319</v>
+        <v>10449</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02463337578584292</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.008053668337507522</v>
+        <v>0.01031177038721575</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04970169590557257</v>
+        <v>0.05572760851206747</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>16</v>
@@ -1572,19 +1572,19 @@
         <v>11959</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6891</v>
+        <v>7262</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>18947</v>
+        <v>20507</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01814433379796352</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01045541860656481</v>
+        <v>0.01101799697398336</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02874637173820439</v>
+        <v>0.03111307790896825</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>28051</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19662</v>
+        <v>19352</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37887</v>
+        <v>38126</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05947939672509965</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0416916296284415</v>
+        <v>0.04103336978272352</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.080334858124989</v>
+        <v>0.08084104821884489</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -1622,19 +1622,19 @@
         <v>15920</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10989</v>
+        <v>11040</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22273</v>
+        <v>23311</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08490852394877299</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05860737777620062</v>
+        <v>0.05888055219130751</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1187899243760148</v>
+        <v>0.1243275094106007</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -1643,19 +1643,19 @@
         <v>43971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33961</v>
+        <v>33697</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57139</v>
+        <v>57215</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06671324167818297</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05152512785201564</v>
+        <v>0.0511249174446225</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0866907368063624</v>
+        <v>0.08680660976649363</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>406099</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>390474</v>
+        <v>389921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>419188</v>
+        <v>419073</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8610868928134542</v>
+        <v>0.8610868928134539</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8279557749964486</v>
+        <v>0.8267828967219349</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8888403897573358</v>
+        <v>0.8885975331125642</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>216</v>
@@ -1693,19 +1693,19 @@
         <v>143853</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133974</v>
+        <v>133916</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>152119</v>
+        <v>152647</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7672264526347709</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7145416136600646</v>
+        <v>0.7142299642066593</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8113165804321659</v>
+        <v>0.8141327497721306</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>623</v>
@@ -1714,19 +1714,19 @@
         <v>549952</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>531201</v>
+        <v>530926</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>567042</v>
+        <v>566771</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8343863353972069</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8059378506506926</v>
+        <v>0.8055215039441546</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8603164153731548</v>
+        <v>0.859905336757973</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>68068</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54263</v>
+        <v>53725</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86904</v>
+        <v>85832</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06013887690642661</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04794246542556433</v>
+        <v>0.04746701978607163</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07678087424494873</v>
+        <v>0.07583390476706278</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>85</v>
@@ -1839,19 +1839,19 @@
         <v>55971</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43440</v>
+        <v>45208</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68263</v>
+        <v>70701</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06503630163145732</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05047550699477246</v>
+        <v>0.05253041052506341</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0793193746419321</v>
+        <v>0.08215205550919367</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>163</v>
@@ -1860,19 +1860,19 @@
         <v>124039</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>106697</v>
+        <v>103221</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>144846</v>
+        <v>144643</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06225425324275956</v>
+        <v>0.06225425324275957</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05355039963465771</v>
+        <v>0.05180602898386157</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07269696188622983</v>
+        <v>0.07259507408347027</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>20243</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13185</v>
+        <v>12685</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30111</v>
+        <v>30078</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01788526466685111</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01164932392893918</v>
+        <v>0.01120745851054432</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02660312858673045</v>
+        <v>0.02657434176729262</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -1910,19 +1910,19 @@
         <v>22549</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15594</v>
+        <v>15106</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30331</v>
+        <v>31103</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02620045531210767</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01811962808588951</v>
+        <v>0.01755214119794692</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0352432169552655</v>
+        <v>0.03614015182867476</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>62</v>
@@ -1931,19 +1931,19 @@
         <v>42792</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32481</v>
+        <v>32603</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54977</v>
+        <v>55202</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02147689874203592</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01630194843216104</v>
+        <v>0.01636306183860043</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02759264055520739</v>
+        <v>0.02770528296861561</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>87748</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>72624</v>
+        <v>69429</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>106745</v>
+        <v>106312</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07752670972870257</v>
+        <v>0.07752670972870256</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06416457795162571</v>
+        <v>0.06134189267910929</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09431083493764805</v>
+        <v>0.09392826260016374</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>112</v>
@@ -1981,19 +1981,19 @@
         <v>61685</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>50858</v>
+        <v>51521</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>74530</v>
+        <v>75446</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07167597838187884</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0590951554603847</v>
+        <v>0.05986521544208026</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0866010093902872</v>
+        <v>0.0876648743861048</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>212</v>
@@ -2002,19 +2002,19 @@
         <v>149433</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>130850</v>
+        <v>129815</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>173905</v>
+        <v>172330</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.0749995654975608</v>
+        <v>0.07499956549756082</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06567280975946695</v>
+        <v>0.0651529753714048</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08728180220357912</v>
+        <v>0.08649091386727711</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>955784</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>930590</v>
+        <v>932811</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>978675</v>
+        <v>982034</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8444491486980197</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8221898179259679</v>
+        <v>0.8241523834992588</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.86467386973685</v>
+        <v>0.8676418553916844</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>995</v>
@@ -2052,19 +2052,19 @@
         <v>720410</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>703409</v>
+        <v>701539</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>738134</v>
+        <v>737686</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8370872646745563</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8173328526285264</v>
+        <v>0.8151596983268155</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8576820262256583</v>
+        <v>0.8571608894847067</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1910</v>
@@ -2073,19 +2073,19 @@
         <v>1676194</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1645111</v>
+        <v>1643859</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1705233</v>
+        <v>1704475</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8412692825176437</v>
+        <v>0.8412692825176438</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.825669204247506</v>
+        <v>0.8250405052316635</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.855844011331195</v>
+        <v>0.8554635682996484</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>21003</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13941</v>
+        <v>13881</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31905</v>
+        <v>30994</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03711402712295513</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02463533882677959</v>
+        <v>0.02452898782741895</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05637982199138895</v>
+        <v>0.05477009955477879</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>171</v>
@@ -2198,19 +2198,19 @@
         <v>98840</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>83409</v>
+        <v>85125</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>113185</v>
+        <v>112719</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1190658747195103</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1004777639684099</v>
+        <v>0.1025442625257022</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.136346307075655</v>
+        <v>0.1357849886925853</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>197</v>
@@ -2219,19 +2219,19 @@
         <v>119842</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>102854</v>
+        <v>105088</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>137549</v>
+        <v>137858</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08584569825502421</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07367658299122241</v>
+        <v>0.07527654915733492</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09852907547647183</v>
+        <v>0.09875067482458916</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>9640</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5076</v>
+        <v>4685</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17556</v>
+        <v>16639</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01703576268589707</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008970575675939842</v>
+        <v>0.008279141515081179</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03102332525269546</v>
+        <v>0.02940237880864824</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -2269,19 +2269,19 @@
         <v>46987</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36217</v>
+        <v>37470</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58174</v>
+        <v>58558</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05660217210008701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0436283466799286</v>
+        <v>0.04513788244925121</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07007824887422044</v>
+        <v>0.07054128838187153</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -2290,19 +2290,19 @@
         <v>56627</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>45381</v>
+        <v>45743</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70047</v>
+        <v>69420</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04056344763744604</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03250726359182277</v>
+        <v>0.03276651236063261</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05017630073185426</v>
+        <v>0.04972724125485752</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>36045</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25852</v>
+        <v>26137</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>51496</v>
+        <v>51484</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06369631141156315</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04568349125738446</v>
+        <v>0.04618663260522373</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09099995971296808</v>
+        <v>0.09097834810168454</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>150</v>
@@ -2340,19 +2340,19 @@
         <v>88744</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>74666</v>
+        <v>74918</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>104573</v>
+        <v>103582</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1069044890247777</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08994497472599702</v>
+        <v>0.0902483407324242</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1259719073508948</v>
+        <v>0.1247790883149856</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>185</v>
@@ -2361,19 +2361,19 @@
         <v>124790</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>105272</v>
+        <v>105227</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>145757</v>
+        <v>143709</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08938952960511747</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07540867788631718</v>
+        <v>0.07537603248192139</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1044085985998249</v>
+        <v>0.102941729714858</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>499206</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>480340</v>
+        <v>481990</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>514304</v>
+        <v>513226</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8821538987795847</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8488160276299062</v>
+        <v>0.8517314755964531</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9088344487914675</v>
+        <v>0.906929328307655</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>887</v>
@@ -2411,19 +2411,19 @@
         <v>595556</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>574255</v>
+        <v>574177</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>618280</v>
+        <v>615640</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7174274641556251</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6917674680664428</v>
+        <v>0.6916732388425691</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7448019858055456</v>
+        <v>0.7416213418055118</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1359</v>
@@ -2432,19 +2432,19 @@
         <v>1094762</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1067639</v>
+        <v>1067800</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1122247</v>
+        <v>1121375</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.7842013245024125</v>
+        <v>0.7842013245024123</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7647722756194094</v>
+        <v>0.7648878672917395</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8038893437793899</v>
+        <v>0.8032642953969791</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>2548</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>672</v>
+        <v>553</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6100</v>
+        <v>6402</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01073977487877612</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002831370454649694</v>
+        <v>0.002330743346720994</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02571530986832025</v>
+        <v>0.0269865749472136</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>153</v>
@@ -2557,19 +2557,19 @@
         <v>94164</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>79555</v>
+        <v>80856</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>109648</v>
+        <v>110855</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.111531906605741</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09422814142200174</v>
+        <v>0.09576929512314779</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1298717967951088</v>
+        <v>0.1313015518404184</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>157</v>
@@ -2578,19 +2578,19 @@
         <v>96712</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>80332</v>
+        <v>81150</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>112917</v>
+        <v>113727</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08942326371466811</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07427746015353794</v>
+        <v>0.07503391600680208</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1044068296334413</v>
+        <v>0.1051556110057099</v>
       </c>
     </row>
     <row r="30">
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17381</v>
+        <v>18032</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01646702224352852</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07326671046198892</v>
+        <v>0.07600915704865312</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>69</v>
@@ -2628,19 +2628,19 @@
         <v>42061</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>32357</v>
+        <v>32713</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>53900</v>
+        <v>53437</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04981842254836194</v>
+        <v>0.04981842254836195</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03832451806484545</v>
+        <v>0.03874668274420541</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06384121410219562</v>
+        <v>0.06329255531835466</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>71</v>
@@ -2649,19 +2649,19 @@
         <v>45967</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>35998</v>
+        <v>36383</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>60194</v>
+        <v>60091</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04250282968785776</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03328458398590174</v>
+        <v>0.03364096239352236</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05565763055803671</v>
+        <v>0.05556245201991777</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>5494</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1810</v>
+        <v>1666</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14424</v>
+        <v>15338</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02315791068098364</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.007629446725784787</v>
+        <v>0.007022744135214588</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06080106015742277</v>
+        <v>0.06465661435235114</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>154</v>
@@ -2699,19 +2699,19 @@
         <v>87178</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>73832</v>
+        <v>73933</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>101861</v>
+        <v>102798</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1032567183071802</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08744999861000224</v>
+        <v>0.08756901059365357</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1206477883718427</v>
+        <v>0.1217583204616029</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>158</v>
@@ -2720,19 +2720,19 @@
         <v>92671</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>77220</v>
+        <v>78724</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>109602</v>
+        <v>111942</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08568713322681461</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0714000337828903</v>
+        <v>0.07279067356430698</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1013419328366235</v>
+        <v>0.1035053454670392</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>225280</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>213019</v>
+        <v>211182</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>232133</v>
+        <v>231842</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9496352921967117</v>
+        <v>0.9496352921967116</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8979491817822136</v>
+        <v>0.8902079649732768</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9785242475978028</v>
+        <v>0.9772977562553854</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>783</v>
@@ -2770,19 +2770,19 @@
         <v>620878</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>599175</v>
+        <v>595190</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>643675</v>
+        <v>641588</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7353929525387168</v>
+        <v>0.7353929525387169</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7096870390154852</v>
+        <v>0.7049672534824608</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7623940843944316</v>
+        <v>0.7599228088898984</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>885</v>
@@ -2791,19 +2791,19 @@
         <v>846158</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>820908</v>
+        <v>819302</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>869911</v>
+        <v>872163</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7823867733706596</v>
+        <v>0.7823867733706595</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7590392271649925</v>
+        <v>0.7575547017545561</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8043492368183083</v>
+        <v>0.8064316066838648</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>171083</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>146029</v>
+        <v>147097</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>195891</v>
+        <v>196344</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04972757327004595</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04244518745222621</v>
+        <v>0.04275570184169062</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05693839986955571</v>
+        <v>0.05707004630974315</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>528</v>
@@ -2916,19 +2916,19 @@
         <v>328333</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>300886</v>
+        <v>301188</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>357762</v>
+        <v>360110</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09036509410567128</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08281110191683974</v>
+        <v>0.08289403526504863</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09846463086970274</v>
+        <v>0.09911091951189242</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>729</v>
@@ -2937,19 +2937,19 @@
         <v>499416</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>466400</v>
+        <v>460894</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>539016</v>
+        <v>540335</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07060070232104758</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06593334236937397</v>
+        <v>0.0651549453393673</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07619882176242497</v>
+        <v>0.07638531292434576</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>63395</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>48761</v>
+        <v>49321</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>81101</v>
+        <v>81251</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01842672013335128</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01417302703949945</v>
+        <v>0.01433568195119406</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02357307487000588</v>
+        <v>0.02361682176604685</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>225</v>
@@ -2987,19 +2987,19 @@
         <v>137670</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>120846</v>
+        <v>118972</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>155750</v>
+        <v>156715</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03789009998127777</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03325981731441162</v>
+        <v>0.03274384448449</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04286618097988069</v>
+        <v>0.04313160881433744</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>302</v>
@@ -3008,19 +3008,19 @@
         <v>201066</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>178191</v>
+        <v>178418</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>228089</v>
+        <v>226609</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02842392544953484</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02519027587392419</v>
+        <v>0.02522238838204234</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03224407831075511</v>
+        <v>0.03203488728554667</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>224077</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>193341</v>
+        <v>195849</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>254359</v>
+        <v>256510</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06513106516607552</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05619703607865306</v>
+        <v>0.05692625051003162</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07393288905984344</v>
+        <v>0.07455790146620346</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>558</v>
@@ -3058,19 +3058,19 @@
         <v>321368</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>294377</v>
+        <v>295436</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>347926</v>
+        <v>351536</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08844801113909893</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08101956931411847</v>
+        <v>0.0813111419867092</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09575762580784911</v>
+        <v>0.09675102151924948</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>805</v>
@@ -3079,19 +3079,19 @@
         <v>545445</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>505719</v>
+        <v>508498</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>585076</v>
+        <v>591239</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.07710762309486238</v>
+        <v>0.0771076230948624</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07149170729096005</v>
+        <v>0.07188453272131856</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08271013943603195</v>
+        <v>0.08358131978405092</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>2981851</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2939205</v>
+        <v>2943264</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3021517</v>
+        <v>3024655</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.8667146414305273</v>
+        <v>0.8667146414305272</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.854318878306079</v>
+        <v>0.8554987337537558</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8782440824997851</v>
+        <v>0.8791562917288464</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3930</v>
@@ -3129,19 +3129,19 @@
         <v>2846035</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2804798</v>
+        <v>2807420</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2887841</v>
+        <v>2886518</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.783296794773952</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.7719474005523954</v>
+        <v>0.7726690318280252</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7948028311025355</v>
+        <v>0.7944387185424404</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6703</v>
@@ -3150,19 +3150,19 @@
         <v>5827886</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5764267</v>
+        <v>5759435</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5880782</v>
+        <v>5878273</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.8238677491345551</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8148742430914032</v>
+        <v>0.8141911250529072</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8313455783299029</v>
+        <v>0.8309908635626405</v>
       </c>
     </row>
     <row r="38">
